--- a/src/main/resources/DataList/WC8-3N-1(1-2).xlsx
+++ b/src/main/resources/DataList/WC8-3N-1(1-2).xlsx
@@ -4,19 +4,55 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="插值数据表" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="6">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>WC8-3N-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
+      </rPr>
+      <t>1-2</t>
+    </r>
+  </si>
+  <si>
+    <t>井号</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t xml:space="preserve">WC8-3N-1 </t>
   </si>
@@ -27,14 +63,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,44 +80,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -100,6 +101,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -109,41 +149,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,7 +202,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,55 +238,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,13 +382,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,108 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -424,17 +453,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,6 +519,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,213 +592,228 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -746,7 +827,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -756,39 +837,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -867,160 +948,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1035,10 +1087,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1059,277 +1111,619 @@
       <c r="F1" s="3">
         <v>1.412</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>3238</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>1.019</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>0.06</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>0.722</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="8">
         <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>3238</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>1.503</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>0.11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>0.49</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>3238</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>1.963</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>0.34</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>0.375</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="8">
         <v>0.23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>3238</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>4.918</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>35.41</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>0.15</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>35.07</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>3238</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>7.961</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>52.11</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
         <v>0.092</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="8">
         <v>16.7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>3238</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>9.904</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>55.69</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
         <v>0.074</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="8">
         <v>3.58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>3238</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>11.904</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>58.16</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7">
         <v>0.062</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="8">
         <v>2.47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>3238</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>14.828</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>61.07</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="7">
         <v>0.05</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="8">
         <v>2.91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>3238</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>19.73</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>64.66</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7">
         <v>0.037</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="8">
         <v>3.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>3238</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>29.684</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>70.04</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
         <v>0.025</v>
       </c>
-      <c r="G11" s="1">
-        <v>5.38000000000001</v>
+      <c r="G11" s="8">
+        <v>5.38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P1" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W1" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X1" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.308888888888889</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19.233793103448278</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.327777777777776</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.050431034482758624</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.057565217391304345</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.03582608695652173</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.018434782608695653</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>